--- a/Data/Test SWV/Excel Files/Apt1.xlsx
+++ b/Data/Test SWV/Excel Files/Apt1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 23, 2023   10:45:26</t>
+          <t>Mar. 23</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   10:45:26</t>
         </is>
       </c>
     </row>
@@ -543,882 +548,2772 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-0.004, -7.750e-8, -4.269e-8, 3.481e-8</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.750e-8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.269e-8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.481e-8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.008, -7.827e-8, -4.400e-8, 3.427e-8</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.827e-8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.400e-8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.427e-8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.012, -7.850e-8, -4.439e-8, 3.411e-8</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.850e-8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.439e-8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.411e-8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.016, -7.815e-8, -4.467e-8, 3.348e-8</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.815e-8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.467e-8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.348e-8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.020, -7.798e-8, -4.493e-8, 3.305e-8</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.798e-8</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.493e-8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.305e-8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.024, -7.832e-8, -4.508e-8, 3.324e-8</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.832e-8</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.508e-8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.324e-8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.028, -7.822e-8, -4.528e-8, 3.294e-8</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.822e-8</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.528e-8</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.294e-8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.032, -7.824e-8, -4.554e-8, 3.269e-8</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.824e-8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.554e-8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.269e-8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.036, -7.825e-8, -4.562e-8, 3.263e-8</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.825e-8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.562e-8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.263e-8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.040, -7.818e-8, -4.577e-8, 3.241e-8</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.818e-8</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.577e-8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.241e-8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.044, -7.827e-8, -4.595e-8, 3.232e-8</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.827e-8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.595e-8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.232e-8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.048, -7.831e-8, -4.613e-8, 3.218e-8</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.831e-8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.613e-8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.218e-8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.052, -7.843e-8, -4.647e-8, 3.196e-8</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.843e-8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.647e-8</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.196e-8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.056, -7.871e-8, -4.658e-8, 3.213e-8</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.871e-8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.658e-8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.213e-8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.060, -7.872e-8, -4.684e-8, 3.189e-8</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.872e-8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.684e-8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.189e-8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.064, -7.884e-8, -4.703e-8, 3.181e-8</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.884e-8</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.703e-8</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.181e-8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.068, -7.886e-8, -4.738e-8, 3.148e-8</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.886e-8</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.738e-8</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.148e-8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.072, -7.927e-8, -4.753e-8, 3.174e-8</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.927e-8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.753e-8</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.174e-8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.076, -7.957e-8, -4.781e-8, 3.176e-8</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.957e-8</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.781e-8</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.176e-8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.080, -7.942e-8, -4.785e-8, 3.157e-8</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.942e-8</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.785e-8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.157e-8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.084, -7.967e-8, -4.813e-8, 3.154e-8</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.967e-8</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.813e-8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.154e-8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.088, -7.985e-8, -4.838e-8, 3.147e-8</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.985e-8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.838e-8</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.147e-8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.092, -8.017e-8, -4.853e-8, 3.164e-8</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.017e-8</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.853e-8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.164e-8</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.096, -8.023e-8, -4.868e-8, 3.155e-8</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.023e-8</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.868e-8</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.155e-8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.100, -8.026e-8, -4.879e-8, 3.148e-8</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.026e-8</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.879e-8</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.148e-8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.104, -8.059e-8, -4.914e-8, 3.145e-8</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.059e-8</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.914e-8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.145e-8</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.108, -8.110e-8, -4.957e-8, 3.152e-8</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.110e-8</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.957e-8</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.152e-8</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.112, -8.125e-8, -4.973e-8, 3.152e-8</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.125e-8</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.973e-8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.152e-8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.116, -8.158e-8, -5.009e-8, 3.148e-8</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.158e-8</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.009e-8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.148e-8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.120, -8.181e-8, -5.045e-8, 3.137e-8</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.181e-8</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.045e-8</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.137e-8</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.124, -8.266e-8, -5.107e-8, 3.159e-8</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.266e-8</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.107e-8</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.159e-8</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.128, -8.295e-8, -5.153e-8, 3.142e-8</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.295e-8</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.153e-8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.142e-8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.132, -8.383e-8, -5.234e-8, 3.149e-8</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.383e-8</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.234e-8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.149e-8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.136, -8.445e-8, -5.270e-8, 3.174e-8</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.445e-8</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.270e-8</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.174e-8</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.140, -8.551e-8, -5.395e-8, 3.156e-8</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.551e-8</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.395e-8</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.156e-8</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.144, -8.692e-8, -5.501e-8, 3.191e-8</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.692e-8</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.501e-8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.191e-8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.148, -8.847e-8, -5.636e-8, 3.211e-8</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.847e-8</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.636e-8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.211e-8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.152, -9.032e-8, -5.787e-8, 3.244e-8</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.032e-8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.787e-8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.244e-8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.156, -9.270e-8, -6.037e-8, 3.233e-8</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.270e-8</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.037e-8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.233e-8</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.160, -9.562e-8, -6.232e-8, 3.329e-8</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.562e-8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.232e-8</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.329e-8</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.164, -9.930e-8, -6.541e-8, 3.388e-8</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.930e-8</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.541e-8</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.388e-8</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.168, -1.041e-7, -6.908e-8, 3.502e-8</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.041e-7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.908e-8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.502e-8</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.172, -1.092e-7, -7.341e-8, 3.584e-8</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.092e-7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.341e-8</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.584e-8</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.176, -1.171e-7, -8.007e-8, 3.700e-8</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.171e-7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.007e-8</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.700e-8</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.180, -1.254e-7, -8.728e-8, 3.810e-8</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.254e-7</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.728e-8</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.810e-8</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.184, -1.366e-7, -9.641e-8, 4.019e-8</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.366e-7</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.641e-8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.019e-8</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.188, -1.497e-7, -1.082e-7, 4.148e-8</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.497e-7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.082e-7</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.148e-8</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.192, -1.667e-7, -1.228e-7, 4.390e-8</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.667e-7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.228e-7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.390e-8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.196, -1.873e-7, -1.403e-7, 4.696e-8</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.873e-7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.403e-7</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.696e-8</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.200, -2.116e-7, -1.609e-7, 5.065e-8</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.116e-7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.609e-7</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.065e-8</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.204, -2.406e-7, -1.854e-7, 5.512e-8</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.406e-7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.854e-7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.512e-8</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.208, -2.748e-7, -2.140e-7, 6.083e-8</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.748e-7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.140e-7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.083e-8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.212, -3.150e-7, -2.476e-7, 6.741e-8</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.150e-7</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.476e-7</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.741e-8</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.216, -3.607e-7, -2.856e-7, 7.508e-8</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.607e-7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.856e-7</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.508e-8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.220, -4.121e-7, -3.276e-7, 8.451e-8</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.121e-7</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.276e-7</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.451e-8</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.224, -4.692e-7, -3.739e-7, 9.534e-8</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.692e-7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.739e-7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.534e-8</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.228, -5.310e-7, -4.229e-7, 1.081e-7</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.310e-7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.229e-7</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.081e-7</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.232, -5.964e-7, -4.737e-7, 1.227e-7</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.964e-7</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.737e-7</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.227e-7</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.236, -6.642e-7, -5.248e-7, 1.393e-7</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.642e-7</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.248e-7</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.393e-7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.240, -7.326e-7, -5.747e-7, 1.578e-7</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.326e-7</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.747e-7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.578e-7</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.244, -7.997e-7, -6.210e-7, 1.787e-7</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.997e-7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.210e-7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.787e-7</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.248, -8.633e-7, -6.617e-7, 2.016e-7</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.633e-7</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.617e-7</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.016e-7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.252, -9.221e-7, -6.952e-7, 2.269e-7</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.221e-7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.952e-7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.269e-7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.256, -9.726e-7, -7.189e-7, 2.537e-7</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.726e-7</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.189e-7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.537e-7</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.260, -1.016e-6, -7.328e-7, 2.827e-7</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.016e-6</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.328e-7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.827e-7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.264, -1.047e-6, -7.347e-7, 3.127e-7</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.047e-6</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.347e-7</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.127e-7</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.268, -1.068e-6, -7.248e-7, 3.430e-7</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.068e-6</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.248e-7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.430e-7</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.272, -1.077e-6, -7.036e-7, 3.733e-7</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.077e-6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.036e-7</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.733e-7</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.276, -1.075e-6, -6.723e-7, 4.030e-7</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.075e-6</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.723e-7</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.030e-7</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.280, -1.062e-6, -6.314e-7, 4.307e-7</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.062e-6</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.314e-7</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.307e-7</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.284, -1.039e-6, -5.839e-7, 4.555e-7</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.039e-6</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.839e-7</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.555e-7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.288, -1.008e-6, -5.320e-7, 4.758e-7</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.008e-6</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.320e-7</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.758e-7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.292, -9.693e-7, -4.780e-7, 4.913e-7</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.693e-7</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.780e-7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.913e-7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.296, -9.250e-7, -4.243e-7, 5.007e-7</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.250e-7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.243e-7</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.007e-7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.300, -8.761e-7, -3.731e-7, 5.031e-7</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.761e-7</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.731e-7</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.031e-7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.304, -8.243e-7, -3.260e-7, 4.984e-7</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.243e-7</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.260e-7</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.984e-7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.308, -7.697e-7, -2.831e-7, 4.866e-7</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.697e-7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.831e-7</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.866e-7</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.312, -7.133e-7, -2.462e-7, 4.671e-7</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.133e-7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.462e-7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.671e-7</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.316, -6.565e-7, -2.149e-7, 4.416e-7</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.565e-7</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.149e-7</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.416e-7</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.320, -5.996e-7, -1.890e-7, 4.107e-7</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.996e-7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.890e-7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.107e-7</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.324, -5.430e-7, -1.678e-7, 3.752e-7</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.430e-7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.678e-7</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.752e-7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.328, -4.878e-7, -1.506e-7, 3.372e-7</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.878e-7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.506e-7</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.372e-7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.332, -4.345e-7, -1.369e-7, 2.976e-7</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.345e-7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.369e-7</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.976e-7</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.336, -3.847e-7, -1.261e-7, 2.586e-7</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.847e-7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.261e-7</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.586e-7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.340, -3.382e-7, -1.174e-7, 2.208e-7</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.382e-7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.174e-7</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.208e-7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.344, -2.974e-7, -1.108e-7, 1.865e-7</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.974e-7</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.108e-7</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.865e-7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.348, -2.611e-7, -1.060e-7, 1.551e-7</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.611e-7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.060e-7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.551e-7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.352, -2.301e-7, -1.022e-7, 1.279e-7</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.301e-7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.022e-7</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.279e-7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.356, -2.035e-7, -9.934e-8, 1.041e-7</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.035e-7</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.934e-8</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.041e-7</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.360, -1.824e-7, -9.790e-8, 8.454e-8</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.824e-7</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.790e-8</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.454e-8</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.364, -1.651e-7, -9.642e-8, 6.872e-8</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.651e-7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.642e-8</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.872e-8</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.368, -1.517e-7, -9.586e-8, 5.585e-8</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.517e-7</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.586e-8</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.585e-8</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.372, -1.412e-7, -9.570e-8, 4.548e-8</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.412e-7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.570e-8</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.548e-8</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.376, -1.327e-7, -9.545e-8, 3.729e-8</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.327e-7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.545e-8</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.729e-8</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.380, -1.272e-7, -9.602e-8, 3.116e-8</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.272e-7</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.602e-8</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.116e-8</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.384, -1.234e-7, -9.698e-8, 2.641e-8</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.234e-7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.698e-8</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.641e-8</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.388, -1.197e-7, -9.753e-8, 2.218e-8</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.197e-7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.753e-8</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.218e-8</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.392, -1.178e-7, -9.867e-8, 1.911e-8</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.178e-7</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.867e-8</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.911e-8</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.396, -1.165e-7, -9.999e-8, 1.656e-8</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.165e-7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.999e-8</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.656e-8</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.400, -1.160e-7, -1.016e-7, 1.443e-8</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.160e-7</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.016e-7</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.443e-8</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.404, -1.157e-7, -1.032e-7, 1.255e-8</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.157e-7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.032e-7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.255e-8</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.408, -1.160e-7, -1.052e-7, 1.082e-8</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.160e-7</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.052e-7</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.082e-8</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.412, -1.168e-7, -1.072e-7, 9.638e-9</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.168e-7</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.072e-7</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.638e-9</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.416, -1.174e-7, -1.093e-7, 8.129e-9</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.174e-7</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.093e-7</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.129e-9</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.420, -1.185e-7, -1.115e-7, 7.067e-9</t>
+          <t>-0.420</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.185e-7</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.115e-7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.067e-9</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.424, -1.194e-7, -1.137e-7, 5.715e-9</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.194e-7</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.137e-7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.715e-9</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.428, -1.208e-7, -1.161e-7, 4.638e-9</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.208e-7</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.161e-7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.638e-9</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.432, -1.223e-7, -1.187e-7, 3.561e-9</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.223e-7</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.187e-7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.561e-9</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.436, -1.238e-7, -1.212e-7, 2.586e-9</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.238e-7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.212e-7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.586e-9</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.440, -1.255e-7, -1.241e-7, 1.352e-9</t>
+          <t>-0.440</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.255e-7</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.241e-7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.352e-9</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.444, -1.273e-7, -1.270e-7, 3.302e-10</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.273e-7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.270e-7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.302e-10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.448, -1.286e-7, -1.298e-7, -1.179e-9</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.286e-7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.298e-7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.179e-9</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.452, -1.307e-7, -1.329e-7, -2.240e-9</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.307e-7</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.329e-7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.240e-9</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.456, -1.325e-7, -1.360e-7, -3.545e-9</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.325e-7</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.360e-7</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.545e-9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.460, -1.347e-7, -1.397e-7, -4.960e-9</t>
+          <t>-0.460</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.347e-7</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.397e-7</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.960e-9</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.464, -1.368e-7, -1.430e-7, -6.203e-9</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.368e-7</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.430e-7</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.203e-9</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.468, -1.392e-7, -1.467e-7, -7.570e-9</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.392e-7</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.467e-7</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.570e-9</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.472, -1.417e-7, -1.507e-7, -8.954e-9</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.417e-7</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.507e-7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.954e-9</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.476, -1.443e-7, -1.545e-7, -1.019e-8</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.443e-7</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.545e-7</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.019e-8</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.480, -1.465e-7, -1.583e-7, -1.184e-8</t>
+          <t>-0.480</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.465e-7</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.583e-7</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.184e-8</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.484, -1.502e-7, -1.631e-7, -1.297e-8</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.502e-7</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.631e-7</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.297e-8</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.488, -1.528e-7, -1.673e-7, -1.453e-8</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.528e-7</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.673e-7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.453e-8</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.492, -1.560e-7, -1.720e-7, -1.601e-8</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.560e-7</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.720e-7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.601e-8</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.496, -1.592e-7, -1.768e-7, -1.751e-8</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.592e-7</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.768e-7</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.751e-8</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.500, -1.625e-7, -1.819e-7, -1.936e-8</t>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.625e-7</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.819e-7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.936e-8</t>
         </is>
       </c>
     </row>
